--- a/8801 송신 매니저 샘플 데이터.xlsx
+++ b/8801 송신 매니저 샘플 데이터.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="10523" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="10523" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="전제 조건" sheetId="2" r:id="rId1"/>
@@ -20,10 +20,11 @@
     <sheet name="5. 계좌번호 필터링" sheetId="6" r:id="rId6"/>
     <sheet name="6. 복합 필터링-1" sheetId="7" r:id="rId7"/>
     <sheet name="7. 미전송 필터링" sheetId="8" r:id="rId8"/>
-    <sheet name="8. 팩스 필터링" sheetId="9" r:id="rId9"/>
-    <sheet name="9. 이메일 필터링" sheetId="10" r:id="rId10"/>
-    <sheet name="10. 미등록 필터링" sheetId="11" r:id="rId11"/>
-    <sheet name="11. 복합 필터링-2" sheetId="14" r:id="rId12"/>
+    <sheet name="7-1. 송신확인" sheetId="17" r:id="rId9"/>
+    <sheet name="8. 팩스 필터링" sheetId="9" r:id="rId10"/>
+    <sheet name="9. 이메일 필터링" sheetId="10" r:id="rId11"/>
+    <sheet name="10. 미등록 필터링" sheetId="11" r:id="rId12"/>
+    <sheet name="11. 복합 필터링-2" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="257">
   <si>
     <t>송신 매니저</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -870,10 +871,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>11:28:13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -882,11 +879,151 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>11:45:50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>이메일 필터링</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:28:44</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송구분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수신처명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수신처</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보고서서식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재전송</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Process</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FINISH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sending..</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sending..</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wating..</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>종합게좌 / 전송구분 / 수신처 - 회차 구분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -894,7 +1031,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -979,6 +1119,46 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -994,7 +1174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1113,6 +1293,159 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1122,10 +1455,142 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1135,143 +1600,134 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1562,218 +2018,218 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="7" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.4375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.4375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.0625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.4375" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="38" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.4375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.4375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.0625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.4375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="38" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="K1" s="8" t="s">
+      <c r="E1" s="35"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="K1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="17" t="s">
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A3" s="9">
+      <c r="A3" s="5">
         <v>975001</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="13" t="s">
         <v>31</v>
       </c>
       <c r="I3" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A4" s="9">
+      <c r="A4" s="5">
         <v>975023</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="18" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="13" t="s">
         <v>39</v>
       </c>
       <c r="I4" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A5" s="9">
+      <c r="A5" s="5">
         <v>123456</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="18" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="29"/>
-      <c r="K6" s="9" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
+      <c r="K6" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28" t="s">
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29"/>
-      <c r="K7" s="9" t="s">
+      <c r="G7" s="21"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21"/>
+      <c r="K7" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="29"/>
-      <c r="K8" s="9" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
+      <c r="K8" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28" t="s">
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="29"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="13" t="s">
         <v>84</v>
       </c>
       <c r="I10" t="s">
@@ -1781,51 +2237,51 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="18" t="s">
+      <c r="D11" s="41"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="D12" s="34"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18" t="s">
+      <c r="D12" s="24"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="13" t="s">
         <v>31</v>
       </c>
       <c r="I13" t="s">
@@ -1833,15 +2289,15 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="D14" s="35"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="18" t="s">
+      <c r="D14" s="43"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="13" t="s">
         <v>107</v>
       </c>
       <c r="I14" t="s">
@@ -1849,15 +2305,15 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="D15" s="35"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="18" t="s">
+      <c r="D15" s="43"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="13" t="s">
         <v>118</v>
       </c>
       <c r="I15" t="s">
@@ -1865,115 +2321,115 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="29"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="21"/>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.6">
-      <c r="D17" s="26"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="28" t="s">
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="29"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="21"/>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.6">
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="29"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="21"/>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.6">
-      <c r="D19" s="36"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="28" t="s">
+      <c r="D19" s="44"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="29"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="21"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.6">
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="5" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.6">
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.6">
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="5" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.6">
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="5" t="s">
         <v>151</v>
       </c>
       <c r="I23" t="s">
@@ -1981,52 +2437,52 @@
       </c>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.6">
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.6">
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="5" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2035,7 +2491,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -2043,292 +2499,420 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="9" style="10"/>
-    <col min="2" max="2" width="9.25" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.9375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.25" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.25" style="23" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="9.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="47"/>
+    </row>
+    <row r="2" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="14">
         <v>975001</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="21" t="s">
+      <c r="F3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="20" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E7" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A6" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="21" t="s">
+      <c r="F7" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A7" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="20" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E11" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A8" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="19" t="s">
+      <c r="F11" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A12" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A13" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C13" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D13" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E13" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F13" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A14" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A15" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A16" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A17" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="25"/>
+      <c r="I17" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A18" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H18" s="25"/>
+      <c r="I18" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A19" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A20" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A21" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A22" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A23" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A24" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A25" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="F25" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="G8" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A9" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A10" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A11" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A12" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A13" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A14" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="G14" s="21" t="s">
+      <c r="G25" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H25" t="s">
         <v>202</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I25" s="16" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="H16" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2342,163 +2926,300 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U36"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="9" style="10"/>
-    <col min="2" max="2" width="9.25" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.9375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.25" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.25" style="23" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="9.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.9375" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="47"/>
+    </row>
+    <row r="2" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="14">
+        <v>975001</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="H7" s="30"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="H9" s="31"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="H10" s="30"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="H11" s="31"/>
+      <c r="C11" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A12" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="H13" s="30"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="H15" s="31"/>
+      <c r="A13" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A14" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="H14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="H16" s="31"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.6">
-      <c r="H17" s="30"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.6">
-      <c r="H18" s="30"/>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.6">
-      <c r="H19" s="30"/>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.6">
-      <c r="H20" s="30"/>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.6">
-      <c r="H21" s="37"/>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.6">
-      <c r="H22" s="30"/>
-    </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.6">
-      <c r="H24" s="37"/>
-    </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.6">
-      <c r="H25" s="37"/>
-    </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.6">
-      <c r="H26" s="37"/>
-    </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.6">
-      <c r="H33" s="30"/>
-    </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.6">
-      <c r="H36"/>
+      <c r="H16" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2512,6 +3233,176 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="9.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.9375" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="47"/>
+    </row>
+    <row r="2" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="H7" s="22"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="H11" s="23"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="H13" s="22"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.6">
+      <c r="H17" s="22"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.6">
+      <c r="H18" s="22"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.6">
+      <c r="H19" s="22"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.6">
+      <c r="H20" s="22"/>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.6">
+      <c r="H21" s="25"/>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.6">
+      <c r="H22" s="22"/>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.6">
+      <c r="H24" s="25"/>
+    </row>
+    <row r="25" spans="8:8" x14ac:dyDescent="0.6">
+      <c r="H25" s="25"/>
+    </row>
+    <row r="26" spans="8:8" x14ac:dyDescent="0.6">
+      <c r="H26" s="25"/>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.6">
+      <c r="H33" s="22"/>
+    </row>
+    <row r="36" spans="8:8" x14ac:dyDescent="0.6">
+      <c r="H36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2520,190 +3411,190 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="4.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.3125" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.25" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5625" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="4.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.3125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5625" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="50"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
     </row>
     <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
     </row>
     <row r="4" spans="1:10" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="40"/>
+      <c r="A4" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50"/>
     </row>
     <row r="5" spans="1:10" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="10" t="s">
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="47"/>
+    </row>
+    <row r="6" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="J7" s="23"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="21" t="s">
+      <c r="A8" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="J8" s="23"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="10"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="23"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="10"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="23"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2723,603 +3614,603 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="9" style="10"/>
-    <col min="2" max="2" width="9.25" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.9375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.25" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.25" style="23" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="9.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.9375" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="47"/>
+    </row>
+    <row r="2" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="14">
         <v>975001</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="21" t="s">
+      <c r="H10" s="22"/>
+      <c r="I10" s="16" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="16" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="H15" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="16" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I17" s="16" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I18" s="16" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="16" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="H20" s="30" t="s">
+      <c r="H20" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="16" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="H21" s="37"/>
-      <c r="I21" s="21" t="s">
+      <c r="H21" s="25"/>
+      <c r="I21" s="16" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="H22" s="30" t="s">
+      <c r="H22" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="I22" s="16" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="I23" s="21" t="s">
+      <c r="I23" s="16" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="H24" s="37" t="s">
+      <c r="H24" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="I24" s="21" t="s">
+      <c r="I24" s="16" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H25" s="37"/>
-      <c r="I25" s="21" t="s">
+      <c r="H25" s="25"/>
+      <c r="I25" s="16" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="21" t="s">
+      <c r="H26" s="25"/>
+      <c r="I26" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="G27" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="I27" s="21" t="s">
+      <c r="I27" s="16" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="I28" s="21" t="s">
+      <c r="I28" s="16" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="I29" s="21" t="s">
+      <c r="I29" s="16" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="G30" s="21" t="s">
+      <c r="G30" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="H30" s="22" t="s">
+      <c r="H30" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="I30" s="21" t="s">
+      <c r="I30" s="16" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="I31" s="21" t="s">
+      <c r="I31" s="16" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="I32" s="21" t="s">
+      <c r="I32" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="G33" s="21" t="s">
+      <c r="G33" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="H33" s="30" t="s">
+      <c r="H33" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="I33" s="21" t="s">
+      <c r="I33" s="16" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="I34" s="21" t="s">
+      <c r="I34" s="16" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="I35" s="21" t="s">
+      <c r="I35" s="16" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="F36" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="G36" s="21" t="s">
+      <c r="G36" s="16" t="s">
         <v>201</v>
       </c>
       <c r="H36" t="s">
         <v>202</v>
       </c>
-      <c r="I36" s="21" t="s">
+      <c r="I36" s="16" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="F37" s="19" t="s">
+      <c r="F37" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G37" s="21" t="s">
+      <c r="G37" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H37" s="22" t="s">
+      <c r="H37" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="I37" s="21" t="s">
+      <c r="I37" s="16" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="I38" s="21" t="s">
+      <c r="I38" s="16" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3343,597 +4234,597 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="9" style="10"/>
-    <col min="2" max="2" width="9.25" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.9375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.25" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.25" style="23" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="9.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.9375" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="47"/>
+    </row>
+    <row r="2" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="14">
         <v>975001</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="21" t="s">
+      <c r="H10" s="22"/>
+      <c r="I10" s="16" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="16" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="H15" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="16" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I17" s="16" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I18" s="16" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="16" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="H20" s="30" t="s">
+      <c r="H20" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="16" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="H21" s="37"/>
-      <c r="I21" s="21" t="s">
+      <c r="H21" s="25"/>
+      <c r="I21" s="16" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="H22" s="30" t="s">
+      <c r="H22" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="I22" s="16" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="I23" s="21" t="s">
+      <c r="I23" s="16" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="H24" s="37" t="s">
+      <c r="H24" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="I24" s="21" t="s">
+      <c r="I24" s="16" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H25" s="37"/>
-      <c r="I25" s="21" t="s">
+      <c r="H25" s="25"/>
+      <c r="I25" s="16" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="21" t="s">
+      <c r="H26" s="25"/>
+      <c r="I26" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="G27" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="I27" s="21" t="s">
+      <c r="I27" s="16" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="I28" s="21" t="s">
+      <c r="I28" s="16" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="I29" s="21" t="s">
+      <c r="I29" s="16" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="G30" s="21" t="s">
+      <c r="G30" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="H30" s="22" t="s">
+      <c r="H30" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="I30" s="21" t="s">
+      <c r="I30" s="16" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="I31" s="21" t="s">
+      <c r="I31" s="16" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="I32" s="21" t="s">
+      <c r="I32" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="G33" s="21" t="s">
+      <c r="G33" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="H33" s="30" t="s">
+      <c r="H33" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="I33" s="21" t="s">
+      <c r="I33" s="16" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="I34" s="21" t="s">
+      <c r="I34" s="16" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="I35" s="21" t="s">
+      <c r="I35" s="16" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="F36" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="G36" s="21" t="s">
+      <c r="G36" s="16" t="s">
         <v>201</v>
       </c>
       <c r="H36" t="s">
         <v>202</v>
       </c>
-      <c r="I36" s="21" t="s">
+      <c r="I36" s="16" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="F37" s="19" t="s">
+      <c r="F37" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G37" s="21" t="s">
+      <c r="G37" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H37" s="22" t="s">
+      <c r="H37" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="I37" s="21" t="s">
+      <c r="I37" s="16" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="I38" s="21" t="s">
+      <c r="I38" s="16" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3957,313 +4848,313 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="4.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.3125" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.375" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.875" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.875" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="4.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.3125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="10" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
+    </row>
+    <row r="3" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="14">
         <v>975001</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="21" t="s">
+      <c r="H11" s="22"/>
+      <c r="I11" s="16" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="16" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="16" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="H17" s="31" t="s">
+      <c r="H17" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I17" s="16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I18" s="16" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4288,287 +5179,287 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="4.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.3125" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.375" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.9375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.4375" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.875" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="4.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.3125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.9375" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.4375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="10" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
+    </row>
+    <row r="3" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="16" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="21" t="s">
+      <c r="H5" s="25"/>
+      <c r="I5" s="16" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="21" t="s">
+      <c r="H6" s="25"/>
+      <c r="I6" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="16" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="16" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="16" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="16" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="16" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="16" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="16" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="16" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="16" t="s">
         <v>201</v>
       </c>
       <c r="H16" t="s">
         <v>202</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="16" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I17" s="16" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I18" s="16" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4593,313 +5484,313 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="4.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.3125" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.375" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.875" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.875" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="4.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.3125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="10" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
+    </row>
+    <row r="3" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="14">
         <v>975001</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="21" t="s">
+      <c r="H11" s="22"/>
+      <c r="I11" s="16" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="16" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="16" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="H17" s="31" t="s">
+      <c r="H17" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I17" s="16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I18" s="16" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4924,167 +5815,167 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="4.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.3125" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.25" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5625" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="4.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.3125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5625" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="50"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="10" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="47"/>
+    </row>
+    <row r="5" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="16" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="21" t="s">
+      <c r="H7" s="25"/>
+      <c r="I7" s="16" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="16" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="16" t="s">
         <v>163</v>
       </c>
     </row>
@@ -5106,747 +5997,747 @@
   <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="9" style="10"/>
-    <col min="2" max="2" width="9.25" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.375" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.9375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.25" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.25" style="23" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="9.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.9375" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="50"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="10" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
+    </row>
+    <row r="3" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="28">
         <v>975001</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="47" t="s">
-        <v>220</v>
+      <c r="J4" s="32" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="45" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="47" t="s">
-        <v>220</v>
+      <c r="J5" s="32" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="43" t="s">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="45" t="s">
+      <c r="I6" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="47" t="s">
-        <v>220</v>
+      <c r="J6" s="32" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="45" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="47" t="s">
-        <v>220</v>
+      <c r="J7" s="32" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="43" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H8" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="47" t="s">
-        <v>220</v>
+      <c r="J8" s="32" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="45" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="47" t="s">
-        <v>220</v>
+      <c r="J9" s="32" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="44" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="49" t="s">
+      <c r="H10" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="45" t="s">
+      <c r="I10" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="47" t="s">
-        <v>220</v>
+      <c r="J10" s="32" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="45" t="s">
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="47" t="s">
-        <v>220</v>
+      <c r="J11" s="32" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="43" t="s">
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G12" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="49" t="s">
+      <c r="H12" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="I12" s="45" t="s">
+      <c r="I12" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="J12" s="47" t="s">
-        <v>220</v>
+      <c r="J12" s="32" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="45" t="s">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="J13" s="47" t="s">
-        <v>220</v>
+      <c r="J13" s="32" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="43" t="s">
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="G14" s="45" t="s">
+      <c r="G14" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H14" s="48" t="s">
+      <c r="H14" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="45" t="s">
+      <c r="I14" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="J14" s="47" t="s">
-        <v>220</v>
+      <c r="J14" s="32" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="45" t="s">
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="J15" s="47" t="s">
-        <v>220</v>
+      <c r="J15" s="32" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44" t="s">
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="45" t="s">
+      <c r="G16" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="H16" s="49" t="s">
+      <c r="H16" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="I16" s="45" t="s">
+      <c r="I16" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="J16" s="47" t="s">
-        <v>220</v>
+      <c r="J16" s="32" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="43" t="s">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="G17" s="45" t="s">
+      <c r="G17" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="H17" s="49" t="s">
+      <c r="H17" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="I17" s="45" t="s">
+      <c r="I17" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="J17" s="47" t="s">
-        <v>220</v>
+      <c r="J17" s="32" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="43" t="s">
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="45" t="s">
+      <c r="G18" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="H18" s="48" t="s">
+      <c r="H18" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="I18" s="45" t="s">
+      <c r="I18" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="J18" s="47" t="s">
-        <v>220</v>
+      <c r="J18" s="32" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G19" s="45" t="s">
+      <c r="G19" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="H19" s="48" t="s">
+      <c r="H19" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="I19" s="45" t="s">
+      <c r="I19" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="J19" s="47" t="s">
-        <v>218</v>
+      <c r="J19" s="32" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="43" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="G20" s="45" t="s">
+      <c r="G20" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="H20" s="48" t="s">
+      <c r="H20" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="I20" s="45" t="s">
+      <c r="I20" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="J20" s="47" t="s">
-        <v>218</v>
+      <c r="J20" s="32" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="H21" s="30" t="s">
+      <c r="H21" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I21" s="16" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="H22" s="37"/>
-      <c r="I22" s="21" t="s">
+      <c r="H22" s="25"/>
+      <c r="I22" s="16" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="43" t="s">
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="G23" s="45" t="s">
+      <c r="G23" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="H23" s="48" t="s">
+      <c r="H23" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="I23" s="45" t="s">
+      <c r="I23" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="J23" s="47" t="s">
+      <c r="J23" s="32" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="I24" s="21" t="s">
+      <c r="I24" s="16" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="H25" s="37" t="s">
+      <c r="H25" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="I25" s="21" t="s">
+      <c r="I25" s="16" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="21" t="s">
+      <c r="H26" s="25"/>
+      <c r="I26" s="16" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H27" s="37"/>
-      <c r="I27" s="21" t="s">
+      <c r="H27" s="25"/>
+      <c r="I27" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="G28" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="H28" s="22" t="s">
+      <c r="H28" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="I28" s="21" t="s">
+      <c r="I28" s="16" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="I29" s="21" t="s">
+      <c r="I29" s="16" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="I30" s="21" t="s">
+      <c r="I30" s="16" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="G31" s="21" t="s">
+      <c r="G31" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="H31" s="22" t="s">
+      <c r="H31" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="I31" s="21" t="s">
+      <c r="I31" s="16" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="I32" s="21" t="s">
+      <c r="I32" s="16" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="I33" s="21" t="s">
+      <c r="I33" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="G34" s="21" t="s">
+      <c r="G34" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="H34" s="30" t="s">
+      <c r="H34" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="I34" s="21" t="s">
+      <c r="I34" s="16" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="I35" s="21" t="s">
+      <c r="I35" s="16" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="I36" s="21" t="s">
+      <c r="I36" s="16" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="F37" s="19" t="s">
+      <c r="F37" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="G37" s="21" t="s">
+      <c r="G37" s="16" t="s">
         <v>201</v>
       </c>
       <c r="H37" t="s">
         <v>202</v>
       </c>
-      <c r="I37" s="21" t="s">
+      <c r="I37" s="16" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G38" s="21" t="s">
+      <c r="G38" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H38" s="22" t="s">
+      <c r="H38" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="I38" s="21" t="s">
+      <c r="I38" s="16" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="I39" s="21" t="s">
+      <c r="I39" s="16" t="s">
         <v>153</v>
       </c>
     </row>
@@ -5863,432 +6754,821 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="9" style="10"/>
-    <col min="2" max="2" width="9.25" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.25" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.25" style="23" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="4.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.3125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.8125" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="51" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="74" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6875" style="74" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.8125" style="74" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.125" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A1" s="80" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="82"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="10" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="85"/>
+    </row>
+    <row r="3" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="C3" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A3" s="10" t="s">
+      <c r="E3" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A4" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B4" s="61">
         <v>975001</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="20" t="s">
+      <c r="C4" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="D4" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="E4" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="F4" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="G4" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A4" s="10" t="s">
+      <c r="H4" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="K4" s="77">
+        <v>0.47640046296296296</v>
+      </c>
+      <c r="L4" s="78"/>
+      <c r="M4" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="N4" s="76" t="s">
+        <v>256</v>
+      </c>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A5" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A5" s="10" t="s">
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="I5" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="K5" s="77">
+        <v>0.50096064814814811</v>
+      </c>
+      <c r="L5" s="78">
+        <v>50</v>
+      </c>
+      <c r="M5" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="N5" s="75" t="s">
+        <v>239</v>
+      </c>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A6" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="B6" s="61"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="F6" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="G6" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="H6" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="63" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A6" s="10" t="s">
+      <c r="J6" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="K6" s="77">
+        <v>0.47615740740740736</v>
+      </c>
+      <c r="L6" s="78"/>
+      <c r="M6" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="N6" s="76" t="s">
+        <v>240</v>
+      </c>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A7" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A7" s="10" t="s">
+      <c r="B7" s="61"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="I7" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="K7" s="77"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="87" t="s">
+        <v>237</v>
+      </c>
+      <c r="N7" s="75" t="s">
+        <v>241</v>
+      </c>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A8" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="B8" s="61"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="K8" s="77">
+        <v>0.47583333333333333</v>
+      </c>
+      <c r="L8" s="78"/>
+      <c r="M8" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="N8" s="76" t="s">
+        <v>243</v>
+      </c>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A9" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="61"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="I9" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="K9" s="77">
+        <v>0.47583333333333333</v>
+      </c>
+      <c r="L9" s="78"/>
+      <c r="M9" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="N9" s="76" t="s">
+        <v>244</v>
+      </c>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A10" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="61"/>
+      <c r="C10" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="D10" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="21" t="s">
+      <c r="E10" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A8" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A9" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A10" s="10" t="s">
+      <c r="G10" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="63" t="s">
+        <v>253</v>
+      </c>
+      <c r="I10" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="87" t="s">
+        <v>249</v>
+      </c>
+      <c r="N10" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A11" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A11" s="10" t="s">
+      <c r="B11" s="61"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="I11" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="K11" s="77"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="88" t="s">
+        <v>252</v>
+      </c>
+      <c r="N11" s="76"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A12" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" s="20" t="s">
+      <c r="B12" s="61"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="87" t="s">
+        <v>237</v>
+      </c>
+      <c r="N12" s="76" t="s">
+        <v>250</v>
+      </c>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A13" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="I13" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="87" t="s">
+        <v>237</v>
+      </c>
+      <c r="N13" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A14" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="61"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="K14" s="77">
+        <v>0.47583333333333333</v>
+      </c>
+      <c r="L14" s="78"/>
+      <c r="M14" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="N14" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A15" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="61"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="I15" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="K15" s="77">
+        <v>0.47583333333333333</v>
+      </c>
+      <c r="L15" s="78"/>
+      <c r="M15" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="N15" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A16" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="61"/>
+      <c r="C16" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A12" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A13" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="19" t="s">
+      <c r="E16" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="I16" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="K16" s="77"/>
+      <c r="L16" s="78">
+        <v>100</v>
+      </c>
+      <c r="M16" s="89" t="s">
+        <v>255</v>
+      </c>
+      <c r="N16" s="76" t="s">
+        <v>248</v>
+      </c>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A17" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="61"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="K17" s="77">
+        <v>0.47640046296296296</v>
+      </c>
+      <c r="L17" s="78"/>
+      <c r="M17" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="N17" s="76" t="s">
+        <v>238</v>
+      </c>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A18" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="61"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="I18" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="K18" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="L18" s="78"/>
+      <c r="M18" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="N18" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A19" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="H13" s="30" t="s">
+      <c r="C19" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="I13" s="21" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A14" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A15" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="H15" s="37"/>
-      <c r="I15" s="21" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A16" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="H16" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A17" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="H17" s="37"/>
-      <c r="I17" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A18" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="H18" s="37"/>
-      <c r="I18" s="21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A19" s="10" t="s">
+      <c r="H19" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="I19" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="61" t="s">
+        <v>221</v>
+      </c>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="87" t="s">
+        <v>237</v>
+      </c>
+      <c r="N19" s="76" t="s">
+        <v>247</v>
+      </c>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A20" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="G19" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A20" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A21" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="I21" s="21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A22" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A23" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A24" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="I24" s="21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A25" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="H25" t="s">
-        <v>202</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>203</v>
-      </c>
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="61" t="s">
+        <v>221</v>
+      </c>
+      <c r="K20" s="61" t="s">
+        <v>221</v>
+      </c>
+      <c r="L20" s="78"/>
+      <c r="M20" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="N20" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A21" s="66" t="s">
+        <v>235</v>
+      </c>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="69" t="s">
+        <v>233</v>
+      </c>
+      <c r="I21" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="67" t="s">
+        <v>221</v>
+      </c>
+      <c r="K21" s="67" t="s">
+        <v>221</v>
+      </c>
+      <c r="L21" s="79"/>
+      <c r="M21" s="90" t="s">
+        <v>236</v>
+      </c>
+      <c r="N21" s="72" t="s">
+        <v>243</v>
+      </c>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.6">
+      <c r="A22" s="52"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/8801 송신 매니저 샘플 데이터.xlsx
+++ b/8801 송신 매니저 샘플 데이터.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SettleNetTF\HankookFI\HankookFI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SettleNetTF\WorkingFI\HankookFI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="10523" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="10530" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="전제 조건" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="10. 미등록 필터링" sheetId="11" r:id="rId12"/>
     <sheet name="11. 복합 필터링-2" sheetId="14" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="252">
   <si>
     <t>송신 매니저</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -903,10 +903,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>회차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>보고서서식</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -931,14 +927,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>18</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1008,14 +996,6 @@
   </si>
   <si>
     <t>Wating..</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>종합게좌 / 전송구분 / 수신처 - 회차 구분</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1030,7 +1010,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -1455,7 +1435,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1561,6 +1541,123 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1573,24 +1670,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1609,93 +1688,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1712,21 +1704,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2016,31 +1993,31 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.4375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.4375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.0625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.4375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.75" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.625" style="3" customWidth="1"/>
     <col min="11" max="11" width="38" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="74"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="35"/>
+      <c r="E1" s="74"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -2049,7 +2026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -2063,28 +2040,28 @@
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="75"/>
       <c r="J2" s="10"/>
       <c r="K2" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>975001</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="77" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="13" t="s">
@@ -2103,15 +2080,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>975023</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="13" t="s">
         <v>37</v>
       </c>
@@ -2128,15 +2105,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>123456</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="77"/>
       <c r="F5" s="13" t="s">
         <v>48</v>
       </c>
@@ -2153,17 +2130,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="71" t="s">
         <v>57</v>
       </c>
       <c r="F6" s="20" t="s">
@@ -2176,9 +2153,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D7" s="70"/>
+      <c r="E7" s="71"/>
       <c r="F7" s="20" t="s">
         <v>64</v>
       </c>
@@ -2189,11 +2166,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="D8" s="39" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D8" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="71" t="s">
         <v>69</v>
       </c>
       <c r="F8" s="20" t="s">
@@ -2206,9 +2183,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="D9" s="39"/>
-      <c r="E9" s="40"/>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D9" s="70"/>
+      <c r="E9" s="71"/>
       <c r="F9" s="20" t="s">
         <v>37</v>
       </c>
@@ -2216,11 +2193,11 @@
       <c r="H9" s="20"/>
       <c r="I9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="D10" s="41" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D10" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="69" t="s">
         <v>81</v>
       </c>
       <c r="F10" s="13" t="s">
@@ -2236,9 +2213,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="D11" s="41"/>
-      <c r="E11" s="42"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D11" s="73"/>
+      <c r="E11" s="69"/>
       <c r="F11" s="13" t="s">
         <v>64</v>
       </c>
@@ -2252,7 +2229,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D12" s="24"/>
       <c r="E12" s="12"/>
       <c r="F12" s="13" t="s">
@@ -2268,11 +2245,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="D13" s="43" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D13" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="69" t="s">
         <v>101</v>
       </c>
       <c r="F13" s="13" t="s">
@@ -2288,9 +2265,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="D14" s="43"/>
-      <c r="E14" s="42"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D14" s="68"/>
+      <c r="E14" s="69"/>
       <c r="F14" s="13" t="s">
         <v>105</v>
       </c>
@@ -2304,9 +2281,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="D15" s="43"/>
-      <c r="E15" s="42"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D15" s="68"/>
+      <c r="E15" s="69"/>
       <c r="F15" s="13" t="s">
         <v>116</v>
       </c>
@@ -2320,11 +2297,11 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="D16" s="39" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D16" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="71" t="s">
         <v>124</v>
       </c>
       <c r="F16" s="20" t="s">
@@ -2334,9 +2311,9 @@
       <c r="H16" s="20"/>
       <c r="I16" s="21"/>
     </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.6">
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D17" s="70"/>
+      <c r="E17" s="71"/>
       <c r="F17" s="20" t="s">
         <v>64</v>
       </c>
@@ -2344,11 +2321,11 @@
       <c r="H17" s="20"/>
       <c r="I17" s="21"/>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.6">
-      <c r="D18" s="44" t="s">
+    <row r="18" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D18" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="71" t="s">
         <v>137</v>
       </c>
       <c r="F18" s="20" t="s">
@@ -2358,9 +2335,9 @@
       <c r="H18" s="20"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.6">
-      <c r="D19" s="44"/>
-      <c r="E19" s="40"/>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D19" s="72"/>
+      <c r="E19" s="71"/>
       <c r="F19" s="20" t="s">
         <v>37</v>
       </c>
@@ -2368,7 +2345,7 @@
       <c r="H19" s="20"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.6">
+    <row r="20" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D20" s="5" t="s">
         <v>149</v>
       </c>
@@ -2388,7 +2365,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.6">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.3">
       <c r="F21" s="13" t="s">
         <v>154</v>
       </c>
@@ -2402,7 +2379,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.6">
+    <row r="22" spans="4:9" x14ac:dyDescent="0.3">
       <c r="F22" s="5" t="s">
         <v>160</v>
       </c>
@@ -2416,7 +2393,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.6">
+    <row r="23" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D23" s="5" t="s">
         <v>164</v>
       </c>
@@ -2436,7 +2413,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.6">
+    <row r="24" spans="4:9" x14ac:dyDescent="0.3">
       <c r="F24" s="13" t="s">
         <v>174</v>
       </c>
@@ -2450,7 +2427,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.6">
+    <row r="25" spans="4:9" x14ac:dyDescent="0.3">
       <c r="F25" s="5" t="s">
         <v>92</v>
       </c>
@@ -2466,23 +2443,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2497,7 +2474,7 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="9.25" style="14" bestFit="1" customWidth="1"/>
@@ -2512,21 +2489,21 @@
     <col min="22" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="47"/>
-    </row>
-    <row r="2" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="80"/>
+    </row>
+    <row r="2" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -2558,7 +2535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -2587,7 +2564,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -2595,7 +2572,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>42</v>
       </c>
@@ -2612,7 +2589,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>53</v>
       </c>
@@ -2620,7 +2597,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>60</v>
       </c>
@@ -2643,7 +2620,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>66</v>
       </c>
@@ -2652,7 +2629,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>72</v>
       </c>
@@ -2669,7 +2646,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>78</v>
       </c>
@@ -2677,7 +2654,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>86</v>
       </c>
@@ -2700,7 +2677,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>90</v>
       </c>
@@ -2717,7 +2694,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>95</v>
       </c>
@@ -2746,7 +2723,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>104</v>
       </c>
@@ -2775,7 +2752,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>109</v>
       </c>
@@ -2784,7 +2761,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>120</v>
       </c>
@@ -2813,7 +2790,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>125</v>
       </c>
@@ -2822,7 +2799,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>129</v>
       </c>
@@ -2831,7 +2808,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>138</v>
       </c>
@@ -2845,7 +2822,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>143</v>
       </c>
@@ -2853,7 +2830,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>152</v>
       </c>
@@ -2861,7 +2838,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>156</v>
       </c>
@@ -2875,7 +2852,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>162</v>
       </c>
@@ -2883,7 +2860,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>168</v>
       </c>
@@ -2891,7 +2868,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>175</v>
       </c>
@@ -2932,7 +2909,7 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="9.25" style="14" bestFit="1" customWidth="1"/>
@@ -2940,28 +2917,28 @@
     <col min="4" max="4" width="17.5" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.875" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.9375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="49" style="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="41.25" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.25" style="18" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="47"/>
-    </row>
-    <row r="2" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="80"/>
+    </row>
+    <row r="2" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -2993,7 +2970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -3022,7 +2999,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -3030,7 +3007,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>42</v>
       </c>
@@ -3053,7 +3030,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>53</v>
       </c>
@@ -3061,7 +3038,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>60</v>
       </c>
@@ -3084,7 +3061,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>66</v>
       </c>
@@ -3113,7 +3090,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>72</v>
       </c>
@@ -3142,7 +3119,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>78</v>
       </c>
@@ -3150,7 +3127,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>86</v>
       </c>
@@ -3179,7 +3156,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>90</v>
       </c>
@@ -3187,7 +3164,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>95</v>
       </c>
@@ -3195,7 +3172,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>104</v>
       </c>
@@ -3218,7 +3195,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H16" s="23"/>
     </row>
   </sheetData>
@@ -3239,7 +3216,7 @@
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="9.25" style="14" bestFit="1" customWidth="1"/>
@@ -3247,28 +3224,28 @@
     <col min="4" max="4" width="17.5" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.875" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.9375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="49" style="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="41.25" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.25" style="18" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="47"/>
-    </row>
-    <row r="2" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="80"/>
+    </row>
+    <row r="2" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -3300,7 +3277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -3329,7 +3306,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -3337,58 +3314,58 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H7" s="22"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H10" s="22"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H11" s="23"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H13" s="22"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H16" s="23"/>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.6">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H17" s="22"/>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.6">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H18" s="22"/>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.6">
+    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H19" s="22"/>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.6">
+    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H20" s="22"/>
     </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.6">
+    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H21" s="25"/>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.6">
+    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H22" s="22"/>
     </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.6">
+    <row r="24" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H24" s="25"/>
     </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.6">
+    <row r="25" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H25" s="25"/>
     </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.6">
+    <row r="26" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H26" s="25"/>
     </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.6">
+    <row r="33" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H33" s="22"/>
     </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.6">
+    <row r="36" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H36"/>
     </row>
   </sheetData>
@@ -3409,92 +3386,92 @@
       <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.3125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.25" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.625" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.5" style="18" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="81" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A2" s="48" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="83"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="81" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
-    </row>
-    <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="48" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
+    </row>
+    <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="81" t="s">
         <v>214</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50"/>
-    </row>
-    <row r="4" spans="1:10" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="48" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="83"/>
+    </row>
+    <row r="4" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="81" t="s">
         <v>220</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="50"/>
-    </row>
-    <row r="5" spans="1:10" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="45" t="s">
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="83"/>
+    </row>
+    <row r="5" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="47"/>
-    </row>
-    <row r="6" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="80"/>
+    </row>
+    <row r="6" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -3526,7 +3503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>212</v>
       </c>
@@ -3556,7 +3533,7 @@
       </c>
       <c r="J7" s="18"/>
     </row>
-    <row r="8" spans="1:10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>218</v>
       </c>
@@ -3572,7 +3549,7 @@
       </c>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="1:10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -3584,7 +3561,7 @@
       <c r="I9" s="16"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -3618,7 +3595,7 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="9.25" style="14" bestFit="1" customWidth="1"/>
@@ -3626,28 +3603,28 @@
     <col min="4" max="4" width="17.5" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.875" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.9375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="49" style="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="41.25" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.25" style="18" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="47"/>
-    </row>
-    <row r="2" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="80"/>
+    </row>
+    <row r="2" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -3679,7 +3656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -3708,7 +3685,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -3716,7 +3693,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>42</v>
       </c>
@@ -3733,7 +3710,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>53</v>
       </c>
@@ -3741,7 +3718,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>60</v>
       </c>
@@ -3758,7 +3735,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>66</v>
       </c>
@@ -3766,7 +3743,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>72</v>
       </c>
@@ -3789,7 +3766,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>78</v>
       </c>
@@ -3798,7 +3775,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>86</v>
       </c>
@@ -3815,7 +3792,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>90</v>
       </c>
@@ -3823,7 +3800,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>95</v>
       </c>
@@ -3840,7 +3817,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>104</v>
       </c>
@@ -3848,7 +3825,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>109</v>
       </c>
@@ -3871,7 +3848,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>120</v>
       </c>
@@ -3888,7 +3865,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>125</v>
       </c>
@@ -3905,7 +3882,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>129</v>
       </c>
@@ -3934,7 +3911,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>138</v>
       </c>
@@ -3951,7 +3928,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>143</v>
       </c>
@@ -3980,7 +3957,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>152</v>
       </c>
@@ -3989,7 +3966,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>156</v>
       </c>
@@ -4006,7 +3983,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>162</v>
       </c>
@@ -4014,7 +3991,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>168</v>
       </c>
@@ -4043,7 +4020,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>175</v>
       </c>
@@ -4052,7 +4029,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>177</v>
       </c>
@@ -4061,7 +4038,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>178</v>
       </c>
@@ -4075,7 +4052,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>182</v>
       </c>
@@ -4083,7 +4060,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>184</v>
       </c>
@@ -4091,7 +4068,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>185</v>
       </c>
@@ -4105,7 +4082,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>189</v>
       </c>
@@ -4113,7 +4090,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>191</v>
       </c>
@@ -4121,7 +4098,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>192</v>
       </c>
@@ -4138,7 +4115,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>196</v>
       </c>
@@ -4146,7 +4123,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>197</v>
       </c>
@@ -4154,7 +4131,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>198</v>
       </c>
@@ -4177,7 +4154,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>204</v>
       </c>
@@ -4206,7 +4183,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>209</v>
       </c>
@@ -4232,7 +4209,7 @@
       <selection activeCell="A36" sqref="A3:A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="9.25" style="14" bestFit="1" customWidth="1"/>
@@ -4240,28 +4217,28 @@
     <col min="4" max="4" width="17.5" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.875" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.9375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="49" style="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="41.25" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.25" style="18" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="47"/>
-    </row>
-    <row r="2" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="80"/>
+    </row>
+    <row r="2" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -4293,7 +4270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -4322,7 +4299,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -4330,7 +4307,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>42</v>
       </c>
@@ -4347,7 +4324,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>53</v>
       </c>
@@ -4355,7 +4332,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>60</v>
       </c>
@@ -4372,7 +4349,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>66</v>
       </c>
@@ -4380,7 +4357,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>72</v>
       </c>
@@ -4403,7 +4380,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>78</v>
       </c>
@@ -4412,7 +4389,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>86</v>
       </c>
@@ -4429,7 +4406,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>90</v>
       </c>
@@ -4437,7 +4414,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>95</v>
       </c>
@@ -4454,7 +4431,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>104</v>
       </c>
@@ -4462,7 +4439,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>109</v>
       </c>
@@ -4485,7 +4462,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>120</v>
       </c>
@@ -4502,7 +4479,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>125</v>
       </c>
@@ -4519,7 +4496,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>129</v>
       </c>
@@ -4548,7 +4525,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>138</v>
       </c>
@@ -4565,7 +4542,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>143</v>
       </c>
@@ -4594,7 +4571,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>152</v>
       </c>
@@ -4603,7 +4580,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>156</v>
       </c>
@@ -4620,7 +4597,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>162</v>
       </c>
@@ -4628,7 +4605,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>168</v>
       </c>
@@ -4657,7 +4634,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>175</v>
       </c>
@@ -4666,7 +4643,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>177</v>
       </c>
@@ -4675,7 +4652,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>178</v>
       </c>
@@ -4689,7 +4666,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>182</v>
       </c>
@@ -4697,7 +4674,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>184</v>
       </c>
@@ -4705,7 +4682,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>185</v>
       </c>
@@ -4719,7 +4696,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>189</v>
       </c>
@@ -4727,7 +4704,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>191</v>
       </c>
@@ -4735,7 +4712,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>192</v>
       </c>
@@ -4752,7 +4729,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>196</v>
       </c>
@@ -4760,7 +4737,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>197</v>
       </c>
@@ -4768,7 +4745,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>198</v>
       </c>
@@ -4791,7 +4768,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>204</v>
       </c>
@@ -4820,7 +4797,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>209</v>
       </c>
@@ -4846,10 +4823,10 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.3125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.375" style="15" bestFit="1" customWidth="1"/>
@@ -4861,19 +4838,19 @@
     <col min="22" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="81" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="83"/>
       <c r="K1" s="26"/>
       <c r="L1" s="26"/>
       <c r="M1" s="26"/>
@@ -4886,21 +4863,21 @@
       <c r="T1" s="26"/>
       <c r="U1" s="26"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A2" s="45" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47"/>
-    </row>
-    <row r="3" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="80"/>
+    </row>
+    <row r="3" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -4932,7 +4909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -4961,7 +4938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
@@ -4969,7 +4946,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>42</v>
       </c>
@@ -4986,7 +4963,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>53</v>
       </c>
@@ -4994,7 +4971,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>60</v>
       </c>
@@ -5011,7 +4988,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
@@ -5019,7 +4996,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>72</v>
       </c>
@@ -5042,7 +5019,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>78</v>
       </c>
@@ -5051,7 +5028,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>86</v>
       </c>
@@ -5068,7 +5045,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>90</v>
       </c>
@@ -5076,7 +5053,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>95</v>
       </c>
@@ -5093,7 +5070,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>104</v>
       </c>
@@ -5101,7 +5078,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>109</v>
       </c>
@@ -5124,7 +5101,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>120</v>
       </c>
@@ -5141,7 +5118,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>125</v>
       </c>
@@ -5177,34 +5154,34 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.3125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.375" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.9375" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.4375" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.5" style="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="38.875" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.5" style="18" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="81" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="83"/>
       <c r="K1" s="26"/>
       <c r="L1" s="26"/>
       <c r="M1" s="26"/>
@@ -5217,21 +5194,21 @@
       <c r="T1" s="26"/>
       <c r="U1" s="26"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A2" s="45" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47"/>
-    </row>
-    <row r="3" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="80"/>
+    </row>
+    <row r="3" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -5263,7 +5240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>212</v>
       </c>
@@ -5292,7 +5269,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
@@ -5301,7 +5278,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>42</v>
       </c>
@@ -5310,7 +5287,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>53</v>
       </c>
@@ -5324,7 +5301,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>60</v>
       </c>
@@ -5332,7 +5309,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
@@ -5340,7 +5317,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>72</v>
       </c>
@@ -5354,7 +5331,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>78</v>
       </c>
@@ -5362,7 +5339,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>86</v>
       </c>
@@ -5370,7 +5347,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>90</v>
       </c>
@@ -5387,7 +5364,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>95</v>
       </c>
@@ -5395,7 +5372,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>104</v>
       </c>
@@ -5403,7 +5380,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>109</v>
       </c>
@@ -5426,7 +5403,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>120</v>
       </c>
@@ -5455,7 +5432,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>125</v>
       </c>
@@ -5482,10 +5459,10 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.3125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.375" style="15" bestFit="1" customWidth="1"/>
@@ -5497,19 +5474,19 @@
     <col min="22" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="81" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="83"/>
       <c r="K1" s="26"/>
       <c r="L1" s="26"/>
       <c r="M1" s="26"/>
@@ -5522,21 +5499,21 @@
       <c r="T1" s="26"/>
       <c r="U1" s="26"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.6">
-      <c r="A2" s="45" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47"/>
-    </row>
-    <row r="3" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="80"/>
+    </row>
+    <row r="3" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -5568,7 +5545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -5597,7 +5574,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
@@ -5605,7 +5582,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>42</v>
       </c>
@@ -5622,7 +5599,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>53</v>
       </c>
@@ -5630,7 +5607,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>60</v>
       </c>
@@ -5647,7 +5624,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
@@ -5655,7 +5632,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>72</v>
       </c>
@@ -5678,7 +5655,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>78</v>
       </c>
@@ -5687,7 +5664,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>86</v>
       </c>
@@ -5704,7 +5681,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>90</v>
       </c>
@@ -5712,7 +5689,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>95</v>
       </c>
@@ -5729,7 +5706,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>104</v>
       </c>
@@ -5737,7 +5714,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>109</v>
       </c>
@@ -5760,7 +5737,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>120</v>
       </c>
@@ -5777,7 +5754,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>125</v>
       </c>
@@ -5813,78 +5790,78 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.3125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.25" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.625" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.5" style="18" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="81" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A2" s="48" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="83"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="81" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A3" s="48" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="81" t="s">
         <v>214</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A4" s="45" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="83"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="47"/>
-    </row>
-    <row r="5" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="80"/>
+    </row>
+    <row r="5" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -5916,7 +5893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>212</v>
       </c>
@@ -5945,7 +5922,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>34</v>
       </c>
@@ -5954,7 +5931,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>42</v>
       </c>
@@ -5971,7 +5948,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>53</v>
       </c>
@@ -6000,7 +5977,7 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="9.25" style="14" bestFit="1" customWidth="1"/>
@@ -6008,42 +5985,42 @@
     <col min="4" max="4" width="17.5" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.375" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.9375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="49" style="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="41.25" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.25" style="18" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="81" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.6">
-      <c r="A2" s="45" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="83"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47"/>
-    </row>
-    <row r="3" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="80"/>
+    </row>
+    <row r="3" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -6075,7 +6052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>19</v>
       </c>
@@ -6107,7 +6084,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
         <v>34</v>
       </c>
@@ -6125,7 +6102,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>42</v>
       </c>
@@ -6149,7 +6126,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
         <v>53</v>
       </c>
@@ -6167,7 +6144,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
         <v>60</v>
       </c>
@@ -6191,7 +6168,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>66</v>
       </c>
@@ -6209,7 +6186,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>72</v>
       </c>
@@ -6237,7 +6214,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>78</v>
       </c>
@@ -6255,7 +6232,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
         <v>86</v>
       </c>
@@ -6279,7 +6256,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
         <v>90</v>
       </c>
@@ -6297,7 +6274,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
         <v>95</v>
       </c>
@@ -6321,7 +6298,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
         <v>104</v>
       </c>
@@ -6339,7 +6316,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
         <v>109</v>
       </c>
@@ -6367,7 +6344,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
         <v>120</v>
       </c>
@@ -6391,7 +6368,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
         <v>125</v>
       </c>
@@ -6415,7 +6392,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
         <v>129</v>
       </c>
@@ -6447,7 +6424,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
         <v>138</v>
       </c>
@@ -6471,7 +6448,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>143</v>
       </c>
@@ -6500,7 +6477,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>152</v>
       </c>
@@ -6509,7 +6486,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
         <v>156</v>
       </c>
@@ -6533,7 +6510,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>162</v>
       </c>
@@ -6541,7 +6518,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>168</v>
       </c>
@@ -6570,7 +6547,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>175</v>
       </c>
@@ -6579,7 +6556,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>177</v>
       </c>
@@ -6588,7 +6565,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>178</v>
       </c>
@@ -6602,7 +6579,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>182</v>
       </c>
@@ -6610,7 +6587,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>184</v>
       </c>
@@ -6618,7 +6595,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>185</v>
       </c>
@@ -6632,7 +6609,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>189</v>
       </c>
@@ -6640,7 +6617,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>191</v>
       </c>
@@ -6648,7 +6625,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>192</v>
       </c>
@@ -6665,7 +6642,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>196</v>
       </c>
@@ -6673,7 +6650,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>197</v>
       </c>
@@ -6681,7 +6658,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>198</v>
       </c>
@@ -6704,7 +6681,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>204</v>
       </c>
@@ -6733,7 +6710,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>209</v>
       </c>
@@ -6754,69 +6731,66 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.3125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.375" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.125" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.875" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.8125" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.875" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5" style="51" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="74" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.6875" style="74" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.8125" style="74" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.125" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="5"/>
+    <col min="8" max="8" width="38.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="57" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.75" style="57" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.875" style="57" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.125" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.6">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="84" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="82"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.6">
-      <c r="A2" s="83" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="85"/>
-    </row>
-    <row r="3" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
+    </row>
+    <row r="3" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -6838,7 +6812,7 @@
       <c r="G3" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>226</v>
       </c>
       <c r="I3" s="7" t="s">
@@ -6853,722 +6827,661 @@
       <c r="L3" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="N3" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.6">
-      <c r="A4" s="59" t="s">
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="61">
+      <c r="B4" s="44">
         <v>975001</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="64" t="s">
+      <c r="G4" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="62" t="s">
+      <c r="H4" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="61" t="s">
+      <c r="I4" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="K4" s="77">
+      <c r="J4" s="60">
         <v>0.47640046296296296</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="86" t="s">
-        <v>236</v>
-      </c>
-      <c r="N4" s="76" t="s">
-        <v>256</v>
-      </c>
+      <c r="K4" s="61"/>
+      <c r="L4" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="M4" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.6">
-      <c r="A5" s="59" t="s">
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="63" t="s">
-        <v>218</v>
-      </c>
-      <c r="I5" s="63" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="61" t="s">
+      <c r="I5" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="K5" s="77">
+      <c r="J5" s="60">
         <v>0.50096064814814811</v>
       </c>
-      <c r="L5" s="78">
+      <c r="K5" s="61">
         <v>50</v>
       </c>
-      <c r="M5" s="86" t="s">
+      <c r="L5" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="M5" s="58" t="s">
         <v>236</v>
       </c>
-      <c r="N5" s="75" t="s">
-        <v>239</v>
-      </c>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.6">
-      <c r="A6" s="59" t="s">
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="61" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="63" t="s">
+      <c r="F6" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="64" t="s">
+      <c r="G6" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="63" t="s">
+      <c r="H6" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="61" t="s">
+      <c r="I6" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="K6" s="77">
+      <c r="J6" s="60">
         <v>0.47615740740740736</v>
       </c>
-      <c r="L6" s="78"/>
-      <c r="M6" s="86" t="s">
-        <v>236</v>
-      </c>
-      <c r="N6" s="76" t="s">
-        <v>240</v>
-      </c>
+      <c r="K6" s="61"/>
+      <c r="L6" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="M6" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.6">
-      <c r="A7" s="59" t="s">
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="63" t="s">
-        <v>218</v>
-      </c>
-      <c r="I7" s="63" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="61" t="s">
+      <c r="I7" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="K7" s="77"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="N7" s="75" t="s">
-        <v>241</v>
-      </c>
+      <c r="J7" s="60"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="64" t="s">
+        <v>234</v>
+      </c>
+      <c r="M7" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.6">
-      <c r="A8" s="59" t="s">
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="61" t="s">
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="63" t="s">
+      <c r="F8" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="60" t="s">
+      <c r="G8" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="63" t="s">
+      <c r="H8" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="61" t="s">
+      <c r="I8" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="K8" s="77">
+      <c r="J8" s="60">
         <v>0.47583333333333333</v>
       </c>
-      <c r="L8" s="78"/>
-      <c r="M8" s="86" t="s">
-        <v>236</v>
-      </c>
-      <c r="N8" s="76" t="s">
-        <v>243</v>
-      </c>
+      <c r="K8" s="61"/>
+      <c r="L8" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="M8" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.6">
-      <c r="A9" s="59" t="s">
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="63" t="s">
-        <v>218</v>
-      </c>
-      <c r="I9" s="63" t="s">
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="61" t="s">
+      <c r="I9" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="K9" s="77">
+      <c r="J9" s="60">
         <v>0.47583333333333333</v>
       </c>
-      <c r="L9" s="78"/>
-      <c r="M9" s="86" t="s">
-        <v>236</v>
-      </c>
-      <c r="N9" s="76" t="s">
-        <v>244</v>
-      </c>
+      <c r="K9" s="61"/>
+      <c r="L9" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="M9" s="59" t="s">
+        <v>241</v>
+      </c>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.6">
-      <c r="A10" s="59" t="s">
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="62" t="s">
+      <c r="B10" s="44"/>
+      <c r="C10" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="63" t="s">
+      <c r="F10" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="65" t="s">
+      <c r="G10" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="63" t="s">
-        <v>253</v>
-      </c>
-      <c r="I10" s="63" t="s">
+      <c r="H10" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="61" t="s">
+      <c r="I10" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="87" t="s">
-        <v>249</v>
-      </c>
-      <c r="N10" s="76" t="s">
-        <v>242</v>
-      </c>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="64" t="s">
+        <v>246</v>
+      </c>
+      <c r="M10" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.6">
-      <c r="A11" s="59" t="s">
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="63" t="s">
-        <v>218</v>
-      </c>
-      <c r="I11" s="63" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="61" t="s">
+      <c r="I11" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="K11" s="77"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="88" t="s">
-        <v>252</v>
-      </c>
-      <c r="N11" s="76"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="65" t="s">
+        <v>249</v>
+      </c>
+      <c r="M11" s="59"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.6">
-      <c r="A12" s="59" t="s">
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="61" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="63" t="s">
+      <c r="F12" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="65" t="s">
+      <c r="G12" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="63" t="s">
+      <c r="H12" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="61" t="s">
+      <c r="I12" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="N12" s="76" t="s">
-        <v>250</v>
-      </c>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="64" t="s">
+        <v>234</v>
+      </c>
+      <c r="M12" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.6">
-      <c r="A13" s="59" t="s">
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="63" t="s">
-        <v>218</v>
-      </c>
-      <c r="I13" s="63" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="J13" s="61" t="s">
+      <c r="I13" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="N13" s="76" t="s">
-        <v>251</v>
-      </c>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="64" t="s">
+        <v>234</v>
+      </c>
+      <c r="M13" s="59" t="s">
+        <v>248</v>
+      </c>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.6">
-      <c r="A14" s="59" t="s">
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="61" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="63" t="s">
+      <c r="F14" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="60" t="s">
+      <c r="G14" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="63" t="s">
+      <c r="H14" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="61" t="s">
+      <c r="I14" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="K14" s="77">
+      <c r="J14" s="60">
         <v>0.47583333333333333</v>
       </c>
-      <c r="L14" s="78"/>
-      <c r="M14" s="86" t="s">
-        <v>236</v>
-      </c>
-      <c r="N14" s="71" t="s">
-        <v>243</v>
-      </c>
+      <c r="K14" s="61"/>
+      <c r="L14" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="M14" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.6">
-      <c r="A15" s="59" t="s">
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="63" t="s">
-        <v>218</v>
-      </c>
-      <c r="I15" s="63" t="s">
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="J15" s="61" t="s">
+      <c r="I15" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="K15" s="77">
+      <c r="J15" s="60">
         <v>0.47583333333333333</v>
       </c>
-      <c r="L15" s="78"/>
-      <c r="M15" s="86" t="s">
-        <v>236</v>
-      </c>
-      <c r="N15" s="71" t="s">
-        <v>245</v>
-      </c>
+      <c r="K15" s="61"/>
+      <c r="L15" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="M15" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.6">
-      <c r="A16" s="59" t="s">
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="62" t="s">
+      <c r="B16" s="44"/>
+      <c r="C16" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="62" t="s">
+      <c r="D16" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="63" t="s">
+      <c r="F16" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="65" t="s">
+      <c r="G16" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="I16" s="63" t="s">
+      <c r="H16" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="J16" s="61" t="s">
+      <c r="I16" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="K16" s="77"/>
-      <c r="L16" s="78">
+      <c r="J16" s="60"/>
+      <c r="K16" s="61">
         <v>100</v>
       </c>
-      <c r="M16" s="89" t="s">
-        <v>255</v>
-      </c>
-      <c r="N16" s="76" t="s">
-        <v>248</v>
-      </c>
+      <c r="L16" s="66" t="s">
+        <v>250</v>
+      </c>
+      <c r="M16" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.6">
-      <c r="A17" s="59" t="s">
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="61" t="s">
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="63" t="s">
+      <c r="F17" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="65" t="s">
+      <c r="G17" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="63" t="s">
+      <c r="H17" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="J17" s="61" t="s">
+      <c r="I17" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="K17" s="77">
+      <c r="J17" s="60">
         <v>0.47640046296296296</v>
       </c>
-      <c r="L17" s="78"/>
-      <c r="M17" s="86" t="s">
-        <v>236</v>
-      </c>
-      <c r="N17" s="76" t="s">
-        <v>238</v>
-      </c>
+      <c r="K17" s="61"/>
+      <c r="L17" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="M17" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.6">
-      <c r="A18" s="59" t="s">
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="61" t="s">
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="63" t="s">
+      <c r="F18" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="60" t="s">
+      <c r="G18" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="H18" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="I18" s="63" t="s">
+      <c r="H18" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="J18" s="61" t="s">
+      <c r="I18" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="K18" s="61" t="s">
+      <c r="J18" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="L18" s="78"/>
-      <c r="M18" s="86" t="s">
-        <v>236</v>
-      </c>
-      <c r="N18" s="71" t="s">
-        <v>246</v>
-      </c>
+      <c r="K18" s="61"/>
+      <c r="L18" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="M18" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.6">
-      <c r="A19" s="59" t="s">
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="62" t="s">
+      <c r="D19" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="E19" s="61" t="s">
+      <c r="E19" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="63" t="s">
+      <c r="F19" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="G19" s="60" t="s">
+      <c r="G19" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="H19" s="63" t="s">
+      <c r="H19" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="64" t="s">
         <v>234</v>
       </c>
-      <c r="I19" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="J19" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="N19" s="76" t="s">
-        <v>247</v>
-      </c>
+      <c r="M19" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.6">
-      <c r="A20" s="59" t="s">
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="61" t="s">
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="63" t="s">
+      <c r="F20" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="G20" s="60" t="s">
+      <c r="G20" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="H20" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="63" t="s">
+      <c r="H20" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="J20" s="61" t="s">
+      <c r="I20" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="K20" s="61" t="s">
+      <c r="J20" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="L20" s="78"/>
-      <c r="M20" s="86" t="s">
-        <v>236</v>
-      </c>
-      <c r="N20" s="71" t="s">
-        <v>243</v>
-      </c>
+      <c r="K20" s="61"/>
+      <c r="L20" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="M20" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.6">
-      <c r="A21" s="66" t="s">
-        <v>235</v>
-      </c>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="69" t="s">
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="J21" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="K21" s="62"/>
+      <c r="L21" s="67" t="s">
         <v>233</v>
       </c>
-      <c r="I21" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" s="67" t="s">
-        <v>221</v>
-      </c>
-      <c r="K21" s="67" t="s">
-        <v>221</v>
-      </c>
-      <c r="L21" s="79"/>
-      <c r="M21" s="90" t="s">
-        <v>236</v>
-      </c>
-      <c r="N21" s="72" t="s">
-        <v>243</v>
-      </c>
+      <c r="M21" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.6">
-      <c r="A22" s="52"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="58"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/8801 송신 매니저 샘플 데이터.xlsx
+++ b/8801 송신 매니저 샘플 데이터.xlsx
@@ -9,22 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="10530" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="10530" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="전제 조건" sheetId="2" r:id="rId1"/>
-    <sheet name="1. 전체" sheetId="1" r:id="rId2"/>
-    <sheet name="2. 일자 필터링" sheetId="3" r:id="rId3"/>
-    <sheet name="3. 사번 필터링" sheetId="4" r:id="rId4"/>
-    <sheet name="4. 생성시간 필터링" sheetId="5" r:id="rId5"/>
-    <sheet name="5. 계좌번호 필터링" sheetId="6" r:id="rId6"/>
-    <sheet name="6. 복합 필터링-1" sheetId="7" r:id="rId7"/>
-    <sheet name="7. 미전송 필터링" sheetId="8" r:id="rId8"/>
-    <sheet name="7-1. 송신확인" sheetId="17" r:id="rId9"/>
-    <sheet name="8. 팩스 필터링" sheetId="9" r:id="rId10"/>
-    <sheet name="9. 이메일 필터링" sheetId="10" r:id="rId11"/>
-    <sheet name="10. 미등록 필터링" sheetId="11" r:id="rId12"/>
-    <sheet name="11. 복합 필터링-2" sheetId="14" r:id="rId13"/>
+    <sheet name="12. 실제 데이터" sheetId="18" r:id="rId1"/>
+    <sheet name="전제 조건" sheetId="2" r:id="rId2"/>
+    <sheet name="1. 전체" sheetId="1" r:id="rId3"/>
+    <sheet name="2. 일자 필터링" sheetId="3" r:id="rId4"/>
+    <sheet name="3. 사번 필터링" sheetId="4" r:id="rId5"/>
+    <sheet name="4. 생성시간 필터링" sheetId="5" r:id="rId6"/>
+    <sheet name="5. 계좌번호 필터링" sheetId="6" r:id="rId7"/>
+    <sheet name="6. 복합 필터링-1" sheetId="7" r:id="rId8"/>
+    <sheet name="7. 미전송 필터링" sheetId="8" r:id="rId9"/>
+    <sheet name="7-1. 송신확인" sheetId="17" r:id="rId10"/>
+    <sheet name="8. 팩스 필터링" sheetId="9" r:id="rId11"/>
+    <sheet name="9. 이메일 필터링" sheetId="10" r:id="rId12"/>
+    <sheet name="10. 미등록 필터링" sheetId="11" r:id="rId13"/>
+    <sheet name="11. 복합 필터링-2" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="310">
   <si>
     <t>송신 매니저</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1004,6 +1005,213 @@
   </si>
   <si>
     <t>1/1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T001</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>902</t>
+  </si>
+  <si>
+    <t>20171205</t>
+  </si>
+  <si>
+    <t>14325704</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>999999</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>1234-5678</t>
+  </si>
+  <si>
+    <t>국내번호</t>
+  </si>
+  <si>
+    <t>1234_5678</t>
+  </si>
+  <si>
+    <t>00182237750039</t>
+  </si>
+  <si>
+    <t>국제번호</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>kpin@dataroad.co.kr</t>
+  </si>
+  <si>
+    <t>인기필</t>
+  </si>
+  <si>
+    <t>kjyou@dataroad.co.kr,bos@dataroad.co.kr</t>
+  </si>
+  <si>
+    <t>유광진, 백오피스솔루션팀</t>
+  </si>
+  <si>
+    <t>02-3775-0039</t>
+  </si>
+  <si>
+    <t>12345679</t>
+  </si>
+  <si>
+    <t>jslee@dataroad.co.kr</t>
+  </si>
+  <si>
+    <t>이정수 대리</t>
+  </si>
+  <si>
+    <t>12345680</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>133</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>122</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문 ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>통발기-입금확인서-예수금</t>
+  </si>
+  <si>
+    <t>통발기-입금확인서-예수금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>금융상품 거래신청 확인서-외화RP신규매수</t>
+  </si>
+  <si>
+    <t>금융상품 거래신청 확인서-외화RP신규매수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신탁운용자산내역서</t>
+  </si>
+  <si>
+    <t>신탁운용자산내역서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예탁금이용료수익금계산서-예수금(예탁금이용료)</t>
+  </si>
+  <si>
+    <t>예탁금이용료수익금계산서-예수금(예탁금이용료)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>통발기-출금확인서-예수금</t>
+  </si>
+  <si>
+    <t>통발기-출금확인서-예수금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>99999999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>77777777</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>88888888</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC_NO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-MAIL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인기필: 0000-0000
+유광진: 1234-5678</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이정수: 9999-9999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인기필: 0000-0000
+유광진: 1234-5678
+이정수: 9999-9999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인기필: in@dr.com
+유광진: yk@dr.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이정수: js@naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인기필: in@dr.com
+유광진: yk@dr.com
+이정수: js@naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동: gd@god.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1140,7 +1348,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1150,6 +1358,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1435,7 +1649,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1640,36 +1854,42 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1704,6 +1924,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1987,486 +2252,1098 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="38" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9" style="5"/>
+    <col min="12" max="12" width="2.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="74" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="K1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>975001</v>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="76" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>29</v>
+        <v>253</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>975023</v>
+        <v>258</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="13" t="s">
-        <v>37</v>
+        <v>253</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>123456</v>
+        <v>258</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="13" t="s">
-        <v>48</v>
+        <v>253</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>49</v>
+        <v>258</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>50</v>
+        <v>259</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>54</v>
+        <v>252</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
-      <c r="K6" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D7" s="70"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
-      <c r="K7" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D8" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="21"/>
-      <c r="K8" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D9" s="70"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D10" s="73" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="I10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D11" s="73"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D12" s="24"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D13" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="69" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D14" s="68"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="I14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D15" s="68"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="I15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D16" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="71" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="21"/>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D17" s="70"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="21"/>
-    </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D18" s="72" t="s">
-        <v>136</v>
-      </c>
-      <c r="E18" s="71" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="21"/>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D19" s="72"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="21"/>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D20" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="F21" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="F22" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D23" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="I23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="F24" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="F25" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>50</v>
+        <v>253</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="57" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.75" style="57" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.875" style="57" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.125" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="86" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="88"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
+    </row>
+    <row r="3" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="44">
+        <v>975001</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="J4" s="60">
+        <v>0.47640046296296296</v>
+      </c>
+      <c r="K4" s="61"/>
+      <c r="L4" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="M4" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="J5" s="60">
+        <v>0.50096064814814811</v>
+      </c>
+      <c r="K5" s="61">
+        <v>50</v>
+      </c>
+      <c r="L5" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="M5" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="J6" s="60">
+        <v>0.47615740740740736</v>
+      </c>
+      <c r="K6" s="61"/>
+      <c r="L6" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="M6" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="J7" s="60"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="64" t="s">
+        <v>234</v>
+      </c>
+      <c r="M7" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="J8" s="60">
+        <v>0.47583333333333333</v>
+      </c>
+      <c r="K8" s="61"/>
+      <c r="L8" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="M8" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="J9" s="60">
+        <v>0.47583333333333333</v>
+      </c>
+      <c r="K9" s="61"/>
+      <c r="L9" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="M9" s="59" t="s">
+        <v>241</v>
+      </c>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="64" t="s">
+        <v>246</v>
+      </c>
+      <c r="M10" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="J11" s="60"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="65" t="s">
+        <v>249</v>
+      </c>
+      <c r="M11" s="59"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="64" t="s">
+        <v>234</v>
+      </c>
+      <c r="M12" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="64" t="s">
+        <v>234</v>
+      </c>
+      <c r="M13" s="59" t="s">
+        <v>248</v>
+      </c>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="J14" s="60">
+        <v>0.47583333333333333</v>
+      </c>
+      <c r="K14" s="61"/>
+      <c r="L14" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="M14" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="J15" s="60">
+        <v>0.47583333333333333</v>
+      </c>
+      <c r="K15" s="61"/>
+      <c r="L15" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="M15" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="J16" s="60"/>
+      <c r="K16" s="61">
+        <v>100</v>
+      </c>
+      <c r="L16" s="66" t="s">
+        <v>250</v>
+      </c>
+      <c r="M16" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="J17" s="60">
+        <v>0.47640046296296296</v>
+      </c>
+      <c r="K17" s="61"/>
+      <c r="L17" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="M17" s="59" t="s">
+        <v>235</v>
+      </c>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="J18" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="K18" s="61"/>
+      <c r="L18" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="M18" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="64" t="s">
+        <v>234</v>
+      </c>
+      <c r="M19" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="J20" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="K20" s="61"/>
+      <c r="L20" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="M20" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="J21" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="K21" s="62"/>
+      <c r="L21" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="M21" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U25"/>
   <sheetViews>
@@ -2490,18 +3367,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="82"/>
     </row>
     <row r="2" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -2901,7 +3778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U16"/>
   <sheetViews>
@@ -2925,18 +3802,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="82"/>
     </row>
     <row r="2" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -3208,7 +4085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U36"/>
   <sheetViews>
@@ -3232,18 +4109,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="82"/>
     </row>
     <row r="2" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -3378,7 +4255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U10"/>
   <sheetViews>
@@ -3402,74 +4279,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="85"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="83" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
     </row>
     <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="83"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="85"/>
     </row>
     <row r="4" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="83" t="s">
         <v>220</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="83"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="85"/>
     </row>
     <row r="5" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="82"/>
     </row>
     <row r="6" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -3589,10 +4466,491 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U38"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="38" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="70"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="K1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>975001</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>975023</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="72"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>123456</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
+      <c r="K6" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D7" s="74"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21"/>
+      <c r="K7" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D8" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
+      <c r="K8" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D9" s="74"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D10" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D11" s="76"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D12" s="24"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D13" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D14" s="78"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D15" s="78"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D16" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="21"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="21"/>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D17" s="74"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="21"/>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D18" s="79" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="21"/>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D19" s="79"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="21"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="21"/>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D20" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="F21" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="F22" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D23" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="F24" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="F25" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V38"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3605,58 +4963,69 @@
     <col min="6" max="6" width="9.25" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="49" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.25" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.25" style="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="5"/>
+    <col min="9" max="9" width="49" style="17" customWidth="1"/>
+    <col min="10" max="10" width="41.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.25" style="98" customWidth="1"/>
+    <col min="14" max="14" width="17.875" style="26" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80"/>
-    </row>
-    <row r="2" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="82"/>
+    </row>
+    <row r="2" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="105" t="s">
+        <v>282</v>
+      </c>
+      <c r="J2" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="106" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="68"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -3678,22 +5047,47 @@
       <c r="G3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I3" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="M3" s="96" t="s">
+        <v>284</v>
+      </c>
+      <c r="N3" s="26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="H4" s="92"/>
       <c r="I4" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="M4" s="99" t="s">
+        <v>286</v>
+      </c>
+      <c r="N4" s="26">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>42</v>
       </c>
@@ -3703,22 +5097,47 @@
       <c r="G5" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="92" t="s">
         <v>45</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="M5" s="99" t="s">
+        <v>288</v>
+      </c>
+      <c r="N5" s="26">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>53</v>
       </c>
+      <c r="H6" s="92"/>
       <c r="I6" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="M6" s="99" t="s">
+        <v>290</v>
+      </c>
+      <c r="N6" s="26">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>60</v>
       </c>
@@ -3728,22 +5147,38 @@
       <c r="G7" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="93" t="s">
         <v>63</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="M7" s="99" t="s">
+        <v>292</v>
+      </c>
+      <c r="N7" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>66</v>
       </c>
+      <c r="H8" s="92"/>
       <c r="I8" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>72</v>
       </c>
@@ -3759,23 +5194,51 @@
       <c r="G9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="94" t="s">
         <v>76</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="N9" s="101" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="22"/>
+      <c r="H10" s="93"/>
       <c r="I10" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="M10" s="100" t="s">
+        <v>302</v>
+      </c>
+      <c r="N10" s="102" t="s">
+        <v>306</v>
+      </c>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="97"/>
+      <c r="S10" s="97"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>86</v>
       </c>
@@ -3785,22 +5248,47 @@
       <c r="G11" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="94" t="s">
         <v>88</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="M11" s="98" t="s">
+        <v>303</v>
+      </c>
+      <c r="N11" s="26" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="66" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>90</v>
       </c>
+      <c r="H12" s="92"/>
       <c r="I12" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="M12" s="100" t="s">
+        <v>304</v>
+      </c>
+      <c r="N12" s="102" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>95</v>
       </c>
@@ -3810,22 +5298,47 @@
       <c r="G13" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="93" t="s">
         <v>98</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="M13" s="98" t="s">
+        <v>305</v>
+      </c>
+      <c r="N13" s="26" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>104</v>
       </c>
+      <c r="H14" s="92"/>
       <c r="I14" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="M14" s="98" t="s">
+        <v>305</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>109</v>
       </c>
@@ -3841,14 +5354,17 @@
       <c r="G15" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="94" t="s">
         <v>114</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>120</v>
       </c>
@@ -3858,14 +5374,17 @@
       <c r="G16" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="94" t="s">
         <v>121</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>125</v>
       </c>
@@ -3875,14 +5394,17 @@
       <c r="G17" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="93" t="s">
         <v>127</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>129</v>
       </c>
@@ -3904,14 +5426,17 @@
       <c r="G18" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="93" t="s">
         <v>84</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>138</v>
       </c>
@@ -3921,14 +5446,17 @@
       <c r="G19" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="93" t="s">
         <v>141</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>143</v>
       </c>
@@ -3950,23 +5478,29 @@
       <c r="G20" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="H20" s="22" t="s">
+      <c r="H20" s="93" t="s">
         <v>84</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="H21" s="25"/>
+      <c r="H21" s="95"/>
       <c r="I21" s="16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>156</v>
       </c>
@@ -3976,22 +5510,29 @@
       <c r="G22" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="H22" s="22" t="s">
+      <c r="H22" s="93" t="s">
         <v>158</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>162</v>
       </c>
+      <c r="H23" s="92"/>
       <c r="I23" s="16" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>168</v>
       </c>
@@ -4013,92 +5554,123 @@
       <c r="G24" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="H24" s="95" t="s">
         <v>76</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H25" s="25"/>
+      <c r="H25" s="95"/>
       <c r="I25" s="16" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H26" s="25"/>
+      <c r="H26" s="95"/>
       <c r="I26" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>178</v>
       </c>
       <c r="G27" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="H27" s="17" t="s">
+      <c r="H27" s="92" t="s">
         <v>180</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>182</v>
       </c>
+      <c r="H28" s="92"/>
       <c r="I28" s="16" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>184</v>
       </c>
+      <c r="H29" s="92"/>
       <c r="I29" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>185</v>
       </c>
       <c r="G30" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="H30" s="17" t="s">
+      <c r="H30" s="92" t="s">
         <v>187</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>189</v>
       </c>
+      <c r="H31" s="92"/>
       <c r="I31" s="16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>191</v>
       </c>
+      <c r="H32" s="92"/>
       <c r="I32" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>192</v>
       </c>
@@ -4108,30 +5680,41 @@
       <c r="G33" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="H33" s="22" t="s">
+      <c r="H33" s="93" t="s">
         <v>194</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+      <c r="J33" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>196</v>
       </c>
+      <c r="H34" s="92"/>
       <c r="I34" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>197</v>
       </c>
+      <c r="H35" s="92"/>
       <c r="I35" s="16" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>198</v>
       </c>
@@ -4151,10 +5734,13 @@
         <v>202</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+      <c r="J36" s="16" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>204</v>
       </c>
@@ -4176,24 +5762,31 @@
       <c r="G37" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H37" s="17" t="s">
+      <c r="H37" s="92" t="s">
         <v>50</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+      <c r="J37" s="16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>209</v>
       </c>
+      <c r="H38" s="92"/>
       <c r="I38" s="16" t="s">
-        <v>153</v>
+        <v>280</v>
+      </c>
+      <c r="J38" s="16" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4201,7 +5794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U38"/>
   <sheetViews>
@@ -4225,18 +5818,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="82"/>
     </row>
     <row r="2" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -4815,7 +6408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U18"/>
   <sheetViews>
@@ -4839,18 +6432,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="85"/>
       <c r="K1" s="26"/>
       <c r="L1" s="26"/>
       <c r="M1" s="26"/>
@@ -4864,18 +6457,18 @@
       <c r="U1" s="26"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="82"/>
     </row>
     <row r="3" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -5146,7 +6739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U18"/>
   <sheetViews>
@@ -5170,18 +6763,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="85"/>
       <c r="K1" s="26"/>
       <c r="L1" s="26"/>
       <c r="M1" s="26"/>
@@ -5195,18 +6788,18 @@
       <c r="U1" s="26"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="82"/>
     </row>
     <row r="3" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -5451,7 +7044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U18"/>
   <sheetViews>
@@ -5475,18 +7068,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="85"/>
       <c r="K1" s="26"/>
       <c r="L1" s="26"/>
       <c r="M1" s="26"/>
@@ -5500,18 +7093,18 @@
       <c r="U1" s="26"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="82"/>
     </row>
     <row r="3" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -5782,7 +7375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U9"/>
   <sheetViews>
@@ -5806,60 +7399,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="85"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="83" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="83"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="85"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="82"/>
     </row>
     <row r="5" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -5969,7 +7562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
@@ -5993,32 +7586,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="85"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="82"/>
     </row>
     <row r="3" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -6727,764 +8320,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W22"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.875" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.875" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5" style="57" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.75" style="57" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.875" style="57" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.125" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>217</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="86"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="89"/>
-    </row>
-    <row r="3" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="44">
-        <v>975001</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="J4" s="60">
-        <v>0.47640046296296296</v>
-      </c>
-      <c r="K4" s="61"/>
-      <c r="L4" s="63" t="s">
-        <v>233</v>
-      </c>
-      <c r="M4" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="J5" s="60">
-        <v>0.50096064814814811</v>
-      </c>
-      <c r="K5" s="61">
-        <v>50</v>
-      </c>
-      <c r="L5" s="63" t="s">
-        <v>233</v>
-      </c>
-      <c r="M5" s="58" t="s">
-        <v>236</v>
-      </c>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="J6" s="60">
-        <v>0.47615740740740736</v>
-      </c>
-      <c r="K6" s="61"/>
-      <c r="L6" s="63" t="s">
-        <v>233</v>
-      </c>
-      <c r="M6" s="59" t="s">
-        <v>237</v>
-      </c>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="J7" s="60"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="64" t="s">
-        <v>234</v>
-      </c>
-      <c r="M7" s="58" t="s">
-        <v>238</v>
-      </c>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="J8" s="60">
-        <v>0.47583333333333333</v>
-      </c>
-      <c r="K8" s="61"/>
-      <c r="L8" s="63" t="s">
-        <v>233</v>
-      </c>
-      <c r="M8" s="59" t="s">
-        <v>240</v>
-      </c>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="J9" s="60">
-        <v>0.47583333333333333</v>
-      </c>
-      <c r="K9" s="61"/>
-      <c r="L9" s="63" t="s">
-        <v>233</v>
-      </c>
-      <c r="M9" s="59" t="s">
-        <v>241</v>
-      </c>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="64" t="s">
-        <v>246</v>
-      </c>
-      <c r="M10" s="59" t="s">
-        <v>239</v>
-      </c>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="J11" s="60"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="65" t="s">
-        <v>249</v>
-      </c>
-      <c r="M11" s="59"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="64" t="s">
-        <v>234</v>
-      </c>
-      <c r="M12" s="59" t="s">
-        <v>247</v>
-      </c>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="64" t="s">
-        <v>234</v>
-      </c>
-      <c r="M13" s="59" t="s">
-        <v>248</v>
-      </c>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="J14" s="60">
-        <v>0.47583333333333333</v>
-      </c>
-      <c r="K14" s="61"/>
-      <c r="L14" s="63" t="s">
-        <v>233</v>
-      </c>
-      <c r="M14" s="54" t="s">
-        <v>240</v>
-      </c>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="J15" s="60">
-        <v>0.47583333333333333</v>
-      </c>
-      <c r="K15" s="61"/>
-      <c r="L15" s="63" t="s">
-        <v>233</v>
-      </c>
-      <c r="M15" s="54" t="s">
-        <v>242</v>
-      </c>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="J16" s="60"/>
-      <c r="K16" s="61">
-        <v>100</v>
-      </c>
-      <c r="L16" s="66" t="s">
-        <v>250</v>
-      </c>
-      <c r="M16" s="59" t="s">
-        <v>245</v>
-      </c>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="I17" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="J17" s="60">
-        <v>0.47640046296296296</v>
-      </c>
-      <c r="K17" s="61"/>
-      <c r="L17" s="63" t="s">
-        <v>233</v>
-      </c>
-      <c r="M17" s="59" t="s">
-        <v>235</v>
-      </c>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="J18" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="K18" s="61"/>
-      <c r="L18" s="63" t="s">
-        <v>233</v>
-      </c>
-      <c r="M18" s="54" t="s">
-        <v>243</v>
-      </c>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="B19" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="E19" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="G19" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="I19" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="64" t="s">
-        <v>234</v>
-      </c>
-      <c r="M19" s="59" t="s">
-        <v>244</v>
-      </c>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="H20" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="I20" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="J20" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="K20" s="61"/>
-      <c r="L20" s="63" t="s">
-        <v>233</v>
-      </c>
-      <c r="M20" s="54" t="s">
-        <v>240</v>
-      </c>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A21" s="49" t="s">
-        <v>232</v>
-      </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I21" s="50" t="s">
-        <v>221</v>
-      </c>
-      <c r="J21" s="50" t="s">
-        <v>221</v>
-      </c>
-      <c r="K21" s="62"/>
-      <c r="L21" s="67" t="s">
-        <v>233</v>
-      </c>
-      <c r="M21" s="55" t="s">
-        <v>240</v>
-      </c>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="41"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>